--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H2">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I2">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J2">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>738.4174020806702</v>
+        <v>1310.211002109859</v>
       </c>
       <c r="R2">
-        <v>6645.756618726031</v>
+        <v>11791.89901898873</v>
       </c>
       <c r="S2">
-        <v>0.8269539949002501</v>
+        <v>0.8424133388435983</v>
       </c>
       <c r="T2">
-        <v>0.8269539949002501</v>
+        <v>0.8424133388435984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H3">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I3">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J3">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>78.45350794428201</v>
+        <v>133.6013419036606</v>
       </c>
       <c r="R3">
-        <v>706.081571498538</v>
+        <v>1202.412077132945</v>
       </c>
       <c r="S3">
-        <v>0.08786012034068344</v>
+        <v>0.08590032622669959</v>
       </c>
       <c r="T3">
-        <v>0.08786012034068344</v>
+        <v>0.08590032622669959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H4">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I4">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J4">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>49.025243122594</v>
+        <v>83.48687573006279</v>
       </c>
       <c r="R4">
-        <v>441.227188103346</v>
+        <v>751.3818815705652</v>
       </c>
       <c r="S4">
-        <v>0.05490339276532388</v>
+        <v>0.05367872626632524</v>
       </c>
       <c r="T4">
-        <v>0.05490339276532389</v>
+        <v>0.05367872626632525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>8.766517235645001</v>
+        <v>9.134146165235</v>
       </c>
       <c r="R5">
-        <v>78.898655120805</v>
+        <v>82.207315487115</v>
       </c>
       <c r="S5">
-        <v>0.009817626763604552</v>
+        <v>0.005872891126810946</v>
       </c>
       <c r="T5">
-        <v>0.009817626763604552</v>
+        <v>0.005872891126810948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
         <v>0.9314027915003332</v>
@@ -818,10 +818,10 @@
         <v>8.382625123502999</v>
       </c>
       <c r="S6">
-        <v>0.001043078423019478</v>
+        <v>0.0005988547906654308</v>
       </c>
       <c r="T6">
-        <v>0.001043078423019478</v>
+        <v>0.0005988547906654308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
-        <v>0.5820294018056666</v>
+        <v>0.5820294018056668</v>
       </c>
       <c r="R7">
         <v>5.238264616251</v>
       </c>
       <c r="S7">
-        <v>0.0006518150000479225</v>
+        <v>0.0003742216565810386</v>
       </c>
       <c r="T7">
-        <v>0.0006518150000479226</v>
+        <v>0.0003742216565810387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N8">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O8">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P8">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q8">
-        <v>14.29289840027833</v>
+        <v>14.89227929446833</v>
       </c>
       <c r="R8">
-        <v>128.636085602505</v>
+        <v>134.030513650215</v>
       </c>
       <c r="S8">
-        <v>0.0160066236216929</v>
+        <v>0.009575140724083572</v>
       </c>
       <c r="T8">
-        <v>0.01600662362169291</v>
+        <v>0.009575140724083575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P9">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q9">
         <v>1.518555785702555</v>
@@ -1004,10 +1004,10 @@
         <v>13.667002071323</v>
       </c>
       <c r="S9">
-        <v>0.001700631336595215</v>
+        <v>0.0009763707124989404</v>
       </c>
       <c r="T9">
-        <v>0.001700631336595215</v>
+        <v>0.0009763707124989408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N10">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q10">
-        <v>0.9489386585767776</v>
+        <v>0.9489386585767778</v>
       </c>
       <c r="R10">
         <v>8.540447927191</v>
       </c>
       <c r="S10">
-        <v>0.001062716848782528</v>
+        <v>0.0006101296527369572</v>
       </c>
       <c r="T10">
-        <v>0.001062716848782528</v>
+        <v>0.0006101296527369575</v>
       </c>
     </row>
   </sheetData>
